--- a/ex_corr/резерв Tmp/tmpДобровольская.xlsx
+++ b/ex_corr/резерв Tmp/tmpДобровольская.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
-    <sheet name="export_230414_1911" sheetId="1" r:id="rId1"/>
+    <sheet name="export_230418_1017" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="236">
   <si>
     <t>Дата оформления  заявления-квитанции</t>
   </si>
@@ -670,6 +670,63 @@
   </si>
   <si>
     <t xml:space="preserve"> С-МА/13-04-2023/238628900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86P02C2302018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-019232</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Назначить АРМ (Л448) 448 Поверка диоптриметров</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Назначить АРМ (Л448) - работа выполнена 448 Поверка диоптриметров - протокол создан</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-019232-2023-86P02C2302018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14.04.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/17-04-2023/239208371</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16.04.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86P02C2302010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-019232-2023-86P02C2302010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/17-04-2023/239208376</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ТГДц-01 ПРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Шванц Андрей Антонович</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тонометры внутриглазного давления через веко цифровые портативные</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1000-019251</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 448-1000-019251-2023-3012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17909-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С-МА/17-04-2023/239143693</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6137,6 +6194,372 @@
         <v>58</v>
       </c>
     </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45030</v>
+      </c>
+      <c r="B39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J39" t="s">
+        <v>174</v>
+      </c>
+      <c r="K39" t="s">
+        <v>217</v>
+      </c>
+      <c r="L39" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" t="s">
+        <v>43</v>
+      </c>
+      <c r="N39">
+        <v>4700</v>
+      </c>
+      <c r="O39" t="s">
+        <v>43</v>
+      </c>
+      <c r="P39">
+        <v>586691</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>218</v>
+      </c>
+      <c r="R39" t="s">
+        <v>43</v>
+      </c>
+      <c r="S39" t="s">
+        <v>43</v>
+      </c>
+      <c r="T39" t="s">
+        <v>219</v>
+      </c>
+      <c r="U39" t="s">
+        <v>220</v>
+      </c>
+      <c r="V39" t="s">
+        <v>221</v>
+      </c>
+      <c r="W39" t="s">
+        <v>50</v>
+      </c>
+      <c r="X39" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA39">
+        <v>9709077465</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC39">
+        <v>9709077465</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH39">
+        <v>586691</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45030</v>
+      </c>
+      <c r="B40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40" t="s">
+        <v>174</v>
+      </c>
+      <c r="K40" t="s">
+        <v>226</v>
+      </c>
+      <c r="L40" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40">
+        <v>4700</v>
+      </c>
+      <c r="O40" t="s">
+        <v>43</v>
+      </c>
+      <c r="P40">
+        <v>586691</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>218</v>
+      </c>
+      <c r="R40" t="s">
+        <v>43</v>
+      </c>
+      <c r="S40" t="s">
+        <v>43</v>
+      </c>
+      <c r="T40" t="s">
+        <v>219</v>
+      </c>
+      <c r="U40" t="s">
+        <v>220</v>
+      </c>
+      <c r="V40" t="s">
+        <v>227</v>
+      </c>
+      <c r="W40" t="s">
+        <v>50</v>
+      </c>
+      <c r="X40" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA40">
+        <v>9709077465</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC40">
+        <v>9709077465</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH40">
+        <v>586691</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45030</v>
+      </c>
+      <c r="B41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" t="s">
+        <v>230</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" t="s">
+        <v>231</v>
+      </c>
+      <c r="K41">
+        <v>3012</v>
+      </c>
+      <c r="L41" t="s">
+        <v>43</v>
+      </c>
+      <c r="M41" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41">
+        <v>4850</v>
+      </c>
+      <c r="O41" t="s">
+        <v>43</v>
+      </c>
+      <c r="P41">
+        <v>586696</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>232</v>
+      </c>
+      <c r="R41" t="s">
+        <v>43</v>
+      </c>
+      <c r="S41" t="s">
+        <v>43</v>
+      </c>
+      <c r="T41" t="s">
+        <v>73</v>
+      </c>
+      <c r="U41" t="s">
+        <v>74</v>
+      </c>
+      <c r="V41" t="s">
+        <v>233</v>
+      </c>
+      <c r="W41" t="s">
+        <v>50</v>
+      </c>
+      <c r="X41" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH41">
+        <v>586696</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
